--- a/database/industries/shishe/kehamda/product/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3007C0-91AB-4795-934E-4E147A8E32C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,17 +566,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +591,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +608,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +625,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +640,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +657,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +674,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +689,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +741,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -781,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -818,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -857,7 +856,7 @@
         <v>21604</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
@@ -894,7 +893,7 @@
         <v>21604</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -909,7 +908,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -924,7 +923,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -939,7 +938,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -976,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -991,7 +990,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>17879</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>17879</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1197,7 +1196,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1212,7 +1211,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1227,7 +1226,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1279,7 +1278,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>2342887</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>2342887</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1487,7 +1486,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1502,7 +1501,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1517,7 +1516,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1569,7 +1568,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>131041277</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1740,7 +1739,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1755,7 +1754,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1770,7 +1769,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1822,7 +1821,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>-1060461</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>-1060461</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1991,7 +1990,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2006,7 +2005,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2021,7 +2020,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2073,7 +2072,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>1282426</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>20</v>
       </c>

--- a/database/industries/shishe/kehamda/product/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185D705-1BEB-4B86-A92C-B7B4C16BC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -36,24 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -66,6 +49,9 @@
     <t>فصل اول منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>انواع ظروف شیشه ای</t>
   </si>
   <si>
@@ -106,6 +92,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -117,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,17 +555,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -585,13 +574,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,13 +586,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,13 +598,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -634,13 +608,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,13 +620,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -668,13 +632,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -683,13 +642,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -710,23 +664,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -735,165 +674,100 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>18540</v>
+        <v>18603</v>
       </c>
       <c r="F12" s="9">
-        <v>17452</v>
+        <v>18700</v>
       </c>
       <c r="G12" s="9">
-        <v>16721</v>
+        <v>26760</v>
       </c>
       <c r="H12" s="9">
-        <v>18787</v>
+        <v>21604</v>
       </c>
       <c r="I12" s="9">
-        <v>19636</v>
-      </c>
-      <c r="J12" s="9">
-        <v>19292</v>
-      </c>
-      <c r="K12" s="9">
-        <v>18603</v>
-      </c>
-      <c r="L12" s="9">
-        <v>18700</v>
-      </c>
-      <c r="M12" s="9">
-        <v>26760</v>
-      </c>
-      <c r="N12" s="9">
-        <v>21604</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26802</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>18540</v>
+        <v>18603</v>
       </c>
       <c r="F13" s="13">
-        <v>17452</v>
+        <v>18700</v>
       </c>
       <c r="G13" s="13">
-        <v>16721</v>
+        <v>26760</v>
       </c>
       <c r="H13" s="13">
-        <v>18787</v>
+        <v>21604</v>
       </c>
       <c r="I13" s="13">
-        <v>19636</v>
-      </c>
-      <c r="J13" s="13">
-        <v>19292</v>
-      </c>
-      <c r="K13" s="13">
-        <v>18603</v>
-      </c>
-      <c r="L13" s="13">
-        <v>18700</v>
-      </c>
-      <c r="M13" s="13">
-        <v>26760</v>
-      </c>
-      <c r="N13" s="13">
-        <v>21604</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26802</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -902,13 +776,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -917,13 +786,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -932,15 +796,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -959,23 +818,8 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -984,101 +828,66 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>-144</v>
-      </c>
-      <c r="F19" s="9">
-        <v>-21</v>
-      </c>
-      <c r="G19" s="9">
-        <v>-31</v>
-      </c>
-      <c r="H19" s="9">
-        <v>-14</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -1089,99 +898,54 @@
       <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>19250</v>
-      </c>
-      <c r="F22" s="11">
-        <v>20026</v>
+        <v>16703</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="11">
-        <v>18077</v>
+        <v>16726</v>
       </c>
       <c r="H22" s="11">
-        <v>19466</v>
+        <v>17879</v>
       </c>
       <c r="I22" s="11">
-        <v>17796</v>
-      </c>
-      <c r="J22" s="11">
-        <v>19933</v>
-      </c>
-      <c r="K22" s="11">
-        <v>16703</v>
-      </c>
-      <c r="L22" s="11">
-        <v>18953</v>
-      </c>
-      <c r="M22" s="11">
-        <v>16726</v>
-      </c>
-      <c r="N22" s="11">
-        <v>17879</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>19106</v>
+        <v>16703</v>
       </c>
       <c r="F23" s="15">
-        <v>20005</v>
+        <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>18046</v>
+        <v>16726</v>
       </c>
       <c r="H23" s="15">
-        <v>19452</v>
+        <v>17879</v>
       </c>
       <c r="I23" s="15">
-        <v>17796</v>
-      </c>
-      <c r="J23" s="15">
-        <v>19933</v>
-      </c>
-      <c r="K23" s="15">
-        <v>16703</v>
-      </c>
-      <c r="L23" s="15">
-        <v>18953</v>
-      </c>
-      <c r="M23" s="15">
-        <v>16726</v>
-      </c>
-      <c r="N23" s="15">
-        <v>17879</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1190,13 +954,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1205,13 +964,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1220,15 +974,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1247,23 +996,8 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1272,206 +1006,126 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>-3862</v>
-      </c>
-      <c r="F29" s="9">
-        <v>-790</v>
-      </c>
-      <c r="G29" s="9">
-        <v>-1552</v>
-      </c>
-      <c r="H29" s="9">
-        <v>-977</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>-564</v>
-      </c>
-      <c r="F31" s="9">
-        <v>-487</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="9">
-        <v>-642</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>-785</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>-118</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>756939</v>
-      </c>
-      <c r="F32" s="11">
-        <v>895863</v>
+        <v>1637371</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G32" s="11">
-        <v>938597</v>
+        <v>1903047</v>
       </c>
       <c r="H32" s="11">
-        <v>1159933</v>
+        <v>2342887</v>
       </c>
       <c r="I32" s="11">
-        <v>1390125</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1700675</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1637371</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1916177</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1903047</v>
-      </c>
-      <c r="N32" s="11">
-        <v>2342887</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2112863</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>752513</v>
+        <v>1637371</v>
       </c>
       <c r="F33" s="15">
-        <v>894586</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15">
-        <v>936403</v>
+        <v>1903047</v>
       </c>
       <c r="H33" s="15">
-        <v>1158171</v>
+        <v>2342887</v>
       </c>
       <c r="I33" s="15">
-        <v>1390007</v>
-      </c>
-      <c r="J33" s="15">
-        <v>1700675</v>
-      </c>
-      <c r="K33" s="15">
-        <v>1637371</v>
-      </c>
-      <c r="L33" s="15">
-        <v>1916177</v>
-      </c>
-      <c r="M33" s="15">
-        <v>1903047</v>
-      </c>
-      <c r="N33" s="15">
-        <v>2342887</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2112863</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1480,13 +1134,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1495,13 +1144,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1510,15 +1154,10 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1537,23 +1176,8 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1562,169 +1186,104 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>26819444</v>
-      </c>
-      <c r="F39" s="9">
-        <v>37619048</v>
-      </c>
-      <c r="G39" s="9">
-        <v>50064516</v>
-      </c>
-      <c r="H39" s="9">
-        <v>69785714</v>
+      <c r="E39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>39321506</v>
+        <v>98028558</v>
       </c>
       <c r="F42" s="11">
-        <v>44734995</v>
+        <v>101101514</v>
       </c>
       <c r="G42" s="11">
-        <v>51930383</v>
+        <v>113777771</v>
       </c>
       <c r="H42" s="11">
-        <v>59593541</v>
+        <v>131041277</v>
       </c>
       <c r="I42" s="11">
-        <v>78173773</v>
-      </c>
-      <c r="J42" s="11">
-        <v>85319571</v>
-      </c>
-      <c r="K42" s="11">
-        <v>98028558</v>
-      </c>
-      <c r="L42" s="11">
-        <v>101101514</v>
-      </c>
-      <c r="M42" s="11">
-        <v>113777771</v>
-      </c>
-      <c r="N42" s="11">
-        <v>131041277</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122484812</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1733,13 +1292,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1748,13 +1302,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1763,15 +1312,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1790,23 +1334,8 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1815,57 +1344,37 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>4104</v>
-      </c>
-      <c r="F48" s="9">
-        <v>344</v>
-      </c>
-      <c r="G48" s="9">
-        <v>-344</v>
-      </c>
-      <c r="H48" s="9">
-        <v>1457</v>
-      </c>
-      <c r="I48" s="9">
-        <v>156</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
@@ -1883,99 +1392,54 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-330478</v>
+        <v>-594064</v>
       </c>
       <c r="F50" s="9">
-        <v>-391792</v>
+        <v>-754538</v>
       </c>
       <c r="G50" s="9">
-        <v>-394514</v>
+        <v>-812192</v>
       </c>
       <c r="H50" s="9">
-        <v>-509889</v>
+        <v>-1060461</v>
       </c>
       <c r="I50" s="9">
-        <v>-532047</v>
-      </c>
-      <c r="J50" s="9">
-        <v>-631848</v>
-      </c>
-      <c r="K50" s="9">
-        <v>-594064</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-754538</v>
-      </c>
-      <c r="M50" s="9">
-        <v>-812192</v>
-      </c>
-      <c r="N50" s="9">
-        <v>-1060461</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1168958</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>-326374</v>
+        <v>-594064</v>
       </c>
       <c r="F51" s="13">
-        <v>-391448</v>
+        <v>-754538</v>
       </c>
       <c r="G51" s="13">
-        <v>-394858</v>
+        <v>-812192</v>
       </c>
       <c r="H51" s="13">
-        <v>-508432</v>
+        <v>-1060461</v>
       </c>
       <c r="I51" s="13">
-        <v>-531891</v>
-      </c>
-      <c r="J51" s="13">
-        <v>-631848</v>
-      </c>
-      <c r="K51" s="13">
-        <v>-594064</v>
-      </c>
-      <c r="L51" s="13">
-        <v>-754538</v>
-      </c>
-      <c r="M51" s="13">
-        <v>-812192</v>
-      </c>
-      <c r="N51" s="13">
-        <v>-1060461</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1168958</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1984,13 +1448,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1999,13 +1458,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2014,15 +1468,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2041,23 +1490,8 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2066,164 +1500,99 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>242</v>
-      </c>
-      <c r="F57" s="9">
-        <v>-446</v>
-      </c>
-      <c r="G57" s="9">
-        <v>-1896</v>
-      </c>
-      <c r="H57" s="9">
-        <v>480</v>
-      </c>
-      <c r="I57" s="9">
-        <v>156</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>-564</v>
+        <v>0</v>
       </c>
       <c r="F58" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="G58" s="11">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="H58" s="11">
-        <v>-143</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>-118</v>
-      </c>
-      <c r="J58" s="11">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>426461</v>
+        <v>1043307</v>
       </c>
       <c r="F59" s="9">
-        <v>504071</v>
+        <v>1161639</v>
       </c>
       <c r="G59" s="9">
-        <v>543141</v>
+        <v>1090855</v>
       </c>
       <c r="H59" s="9">
-        <v>647060</v>
+        <v>1282426</v>
       </c>
       <c r="I59" s="9">
-        <v>853974</v>
-      </c>
-      <c r="J59" s="9">
-        <v>1068827</v>
-      </c>
-      <c r="K59" s="9">
-        <v>1043307</v>
-      </c>
-      <c r="L59" s="9">
-        <v>1161639</v>
-      </c>
-      <c r="M59" s="9">
-        <v>1090855</v>
-      </c>
-      <c r="N59" s="9">
-        <v>1282426</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>943905</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>426139</v>
+        <v>1043307</v>
       </c>
       <c r="F60" s="13">
-        <v>503138</v>
+        <v>1161639</v>
       </c>
       <c r="G60" s="13">
-        <v>541090</v>
+        <v>1090855</v>
       </c>
       <c r="H60" s="13">
-        <v>647397</v>
+        <v>1282426</v>
       </c>
       <c r="I60" s="13">
-        <v>854012</v>
-      </c>
-      <c r="J60" s="13">
-        <v>1068827</v>
-      </c>
-      <c r="K60" s="13">
-        <v>1043307</v>
-      </c>
-      <c r="L60" s="13">
-        <v>1161639</v>
-      </c>
-      <c r="M60" s="13">
-        <v>1090855</v>
-      </c>
-      <c r="N60" s="13">
-        <v>1282426</v>
+        <v>943905</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185D705-1BEB-4B86-A92C-B7B4C16BC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A3555-DAAB-49BE-8F28-2B7DBF202EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/09</t>
@@ -556,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I60"/>
+  <dimension ref="B1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -574,8 +589,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,8 +606,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +623,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -608,8 +638,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -620,8 +655,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -632,8 +672,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -642,8 +687,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -664,8 +714,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -674,100 +739,165 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>17452</v>
+      </c>
+      <c r="F12" s="9">
+        <v>16721</v>
+      </c>
+      <c r="G12" s="9">
+        <v>18787</v>
+      </c>
+      <c r="H12" s="9">
+        <v>19636</v>
+      </c>
+      <c r="I12" s="9">
+        <v>19292</v>
+      </c>
+      <c r="J12" s="9">
         <v>18603</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>18700</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>26760</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>21604</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>26802</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>17452</v>
+      </c>
+      <c r="F13" s="13">
+        <v>16721</v>
+      </c>
+      <c r="G13" s="13">
+        <v>18787</v>
+      </c>
+      <c r="H13" s="13">
+        <v>19636</v>
+      </c>
+      <c r="I13" s="13">
+        <v>19292</v>
+      </c>
+      <c r="J13" s="13">
         <v>18603</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>18700</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>26760</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>21604</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>26802</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -776,8 +906,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -786,8 +921,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -796,10 +936,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -818,8 +963,23 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -828,66 +988,101 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>12</v>
+      <c r="E19" s="9">
+        <v>-21</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-31</v>
+      </c>
+      <c r="G19" s="9">
+        <v>-14</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
+      <c r="F21" s="9">
+        <v>0</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -898,54 +1093,99 @@
       <c r="I21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
+        <v>20026</v>
+      </c>
+      <c r="F22" s="11">
+        <v>18077</v>
+      </c>
+      <c r="G22" s="11">
+        <v>19466</v>
+      </c>
+      <c r="H22" s="11">
+        <v>17730</v>
+      </c>
+      <c r="I22" s="11">
+        <v>19933</v>
+      </c>
+      <c r="J22" s="11">
         <v>16703</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="K22" s="11">
+        <v>18953</v>
+      </c>
+      <c r="L22" s="11">
         <v>16726</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>17879</v>
       </c>
-      <c r="I22" s="11">
+      <c r="N22" s="11">
         <v>17250</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>20005</v>
+      </c>
+      <c r="F23" s="15">
+        <v>18046</v>
+      </c>
+      <c r="G23" s="15">
+        <v>19452</v>
+      </c>
+      <c r="H23" s="15">
+        <v>17730</v>
+      </c>
+      <c r="I23" s="15">
+        <v>19933</v>
+      </c>
+      <c r="J23" s="15">
         <v>16703</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
+        <v>18953</v>
+      </c>
+      <c r="L23" s="15">
         <v>16726</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>17879</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>17250</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -954,8 +1194,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -964,8 +1209,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -974,10 +1224,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -996,8 +1251,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1006,126 +1276,206 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>12</v>
+      <c r="E29" s="9">
+        <v>-790</v>
+      </c>
+      <c r="F29" s="9">
+        <v>-1552</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-977</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
+        <v>-487</v>
+      </c>
+      <c r="F31" s="9">
+        <v>-642</v>
       </c>
       <c r="G31" s="9">
-        <v>0</v>
+        <v>-785</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>-118</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>895863</v>
+      </c>
+      <c r="F32" s="11">
+        <v>938597</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1159933</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1386021</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1700675</v>
+      </c>
+      <c r="J32" s="11">
         <v>1637371</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
+        <v>1916177</v>
+      </c>
+      <c r="L32" s="11">
         <v>1903047</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>2342887</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>2112863</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>894586</v>
+      </c>
+      <c r="F33" s="15">
+        <v>936403</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1158171</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1385903</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1700675</v>
+      </c>
+      <c r="J33" s="15">
         <v>1637371</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
+        <v>1916177</v>
+      </c>
+      <c r="L33" s="15">
         <v>1903047</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>2342887</v>
       </c>
-      <c r="I33" s="15">
+      <c r="N33" s="15">
         <v>2112863</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1134,8 +1484,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1144,8 +1499,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1154,10 +1514,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1176,8 +1541,23 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1186,104 +1566,169 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>37619048</v>
+      </c>
+      <c r="F39" s="9">
+        <v>50064516</v>
+      </c>
+      <c r="G39" s="9">
+        <v>69785714</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>44734995</v>
+      </c>
+      <c r="F42" s="11">
+        <v>51930383</v>
+      </c>
+      <c r="G42" s="11">
+        <v>59593541</v>
+      </c>
+      <c r="H42" s="11">
+        <v>78173773</v>
+      </c>
+      <c r="I42" s="11">
+        <v>85319571</v>
+      </c>
+      <c r="J42" s="11">
         <v>98028558</v>
       </c>
-      <c r="F42" s="11">
+      <c r="K42" s="11">
         <v>101101514</v>
       </c>
-      <c r="G42" s="11">
+      <c r="L42" s="11">
         <v>113777771</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>131041277</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>122484812</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1292,8 +1737,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1302,8 +1752,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1312,10 +1767,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1334,8 +1794,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1344,37 +1819,57 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>12</v>
+      <c r="E48" s="9">
+        <v>344</v>
+      </c>
+      <c r="F48" s="9">
+        <v>-344</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1457</v>
+      </c>
+      <c r="H48" s="9">
+        <v>156</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
@@ -1392,54 +1887,99 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>-391792</v>
+      </c>
+      <c r="F50" s="9">
+        <v>-394514</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-509889</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-532047</v>
+      </c>
+      <c r="I50" s="9">
+        <v>-631848</v>
+      </c>
+      <c r="J50" s="9">
         <v>-594064</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>-754538</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>-812192</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>-1060461</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>-1168958</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>-391448</v>
+      </c>
+      <c r="F51" s="13">
+        <v>-394858</v>
+      </c>
+      <c r="G51" s="13">
+        <v>-508432</v>
+      </c>
+      <c r="H51" s="13">
+        <v>-531891</v>
+      </c>
+      <c r="I51" s="13">
+        <v>-631848</v>
+      </c>
+      <c r="J51" s="13">
         <v>-594064</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>-754538</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>-812192</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>-1060461</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>-1168958</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1448,8 +1988,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1458,8 +2003,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1468,10 +2018,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1490,8 +2045,23 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1500,98 +2070,163 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>12</v>
+      <c r="E57" s="9">
+        <v>-446</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-1896</v>
+      </c>
+      <c r="G57" s="9">
+        <v>480</v>
+      </c>
+      <c r="H57" s="9">
+        <v>156</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="F58" s="11">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="H58" s="11">
-        <v>0</v>
+        <v>-118</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>504071</v>
+      </c>
+      <c r="F59" s="9">
+        <v>543141</v>
+      </c>
+      <c r="G59" s="9">
+        <v>647060</v>
+      </c>
+      <c r="H59" s="9">
+        <v>853974</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1068827</v>
+      </c>
+      <c r="J59" s="9">
         <v>1043307</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>1161639</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>1090855</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>1282426</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>943905</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>503138</v>
+      </c>
+      <c r="F60" s="13">
+        <v>541090</v>
+      </c>
+      <c r="G60" s="13">
+        <v>647397</v>
+      </c>
+      <c r="H60" s="13">
+        <v>854012</v>
+      </c>
+      <c r="I60" s="13">
+        <v>1068827</v>
+      </c>
+      <c r="J60" s="13">
         <v>1043307</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>1161639</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>1090855</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>1282426</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>943905</v>
       </c>
     </row>

--- a/database/industries/shishe/kehamda/product/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A3555-DAAB-49BE-8F28-2B7DBF202EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED994F-3B99-474C-8FFA-B4FB63DACCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>انواع ظروف شیشه ای</t>
@@ -575,12 +575,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,7 +595,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -644,7 +644,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -693,7 +693,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -799,8 +799,8 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -830,74 +830,74 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>17452</v>
+        <v>16721</v>
       </c>
       <c r="F12" s="9">
-        <v>16721</v>
+        <v>18787</v>
       </c>
       <c r="G12" s="9">
-        <v>18787</v>
+        <v>19636</v>
       </c>
       <c r="H12" s="9">
-        <v>19636</v>
+        <v>19292</v>
       </c>
       <c r="I12" s="9">
-        <v>19292</v>
+        <v>18603</v>
       </c>
       <c r="J12" s="9">
-        <v>18603</v>
+        <v>18700</v>
       </c>
       <c r="K12" s="9">
-        <v>18700</v>
+        <v>26760</v>
       </c>
       <c r="L12" s="9">
-        <v>26760</v>
+        <v>21604</v>
       </c>
       <c r="M12" s="9">
-        <v>21604</v>
+        <v>26802</v>
       </c>
       <c r="N12" s="9">
-        <v>26802</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30285</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>17452</v>
+        <v>16721</v>
       </c>
       <c r="F13" s="13">
-        <v>16721</v>
+        <v>18787</v>
       </c>
       <c r="G13" s="13">
-        <v>18787</v>
+        <v>19636</v>
       </c>
       <c r="H13" s="13">
-        <v>19636</v>
+        <v>19292</v>
       </c>
       <c r="I13" s="13">
-        <v>19292</v>
+        <v>18603</v>
       </c>
       <c r="J13" s="13">
-        <v>18603</v>
+        <v>18700</v>
       </c>
       <c r="K13" s="13">
-        <v>18700</v>
+        <v>26760</v>
       </c>
       <c r="L13" s="13">
-        <v>26760</v>
+        <v>21604</v>
       </c>
       <c r="M13" s="13">
-        <v>21604</v>
+        <v>26802</v>
       </c>
       <c r="N13" s="13">
-        <v>26802</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30285</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -912,7 +912,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -927,7 +927,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -942,7 +942,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -994,7 +994,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1003,16 +1003,16 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
-        <v>-21</v>
+        <v>-31</v>
       </c>
       <c r="F19" s="9">
-        <v>-31</v>
+        <v>-14</v>
       </c>
       <c r="G19" s="9">
-        <v>-14</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>17</v>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1118,74 +1118,74 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>20026</v>
+        <v>18077</v>
       </c>
       <c r="F22" s="11">
-        <v>18077</v>
+        <v>19466</v>
       </c>
       <c r="G22" s="11">
-        <v>19466</v>
+        <v>17730</v>
       </c>
       <c r="H22" s="11">
-        <v>17730</v>
+        <v>19933</v>
       </c>
       <c r="I22" s="11">
-        <v>19933</v>
+        <v>16703</v>
       </c>
       <c r="J22" s="11">
-        <v>16703</v>
+        <v>18953</v>
       </c>
       <c r="K22" s="11">
-        <v>18953</v>
+        <v>16726</v>
       </c>
       <c r="L22" s="11">
-        <v>16726</v>
+        <v>17879</v>
       </c>
       <c r="M22" s="11">
-        <v>17879</v>
+        <v>17250</v>
       </c>
       <c r="N22" s="11">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30909</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>20005</v>
+        <v>18046</v>
       </c>
       <c r="F23" s="15">
-        <v>18046</v>
+        <v>19452</v>
       </c>
       <c r="G23" s="15">
-        <v>19452</v>
+        <v>17730</v>
       </c>
       <c r="H23" s="15">
-        <v>17730</v>
+        <v>19933</v>
       </c>
       <c r="I23" s="15">
-        <v>19933</v>
+        <v>16703</v>
       </c>
       <c r="J23" s="15">
-        <v>16703</v>
+        <v>18953</v>
       </c>
       <c r="K23" s="15">
-        <v>18953</v>
+        <v>16726</v>
       </c>
       <c r="L23" s="15">
-        <v>16726</v>
+        <v>17879</v>
       </c>
       <c r="M23" s="15">
-        <v>17879</v>
+        <v>17250</v>
       </c>
       <c r="N23" s="15">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30909</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1215,7 +1215,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1230,7 +1230,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1291,16 +1291,16 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>-790</v>
+        <v>-1552</v>
       </c>
       <c r="F29" s="9">
-        <v>-1552</v>
+        <v>-977</v>
       </c>
       <c r="G29" s="9">
-        <v>-977</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>17</v>
@@ -1321,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1369,16 +1369,16 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>-487</v>
+        <v>-642</v>
       </c>
       <c r="F31" s="9">
-        <v>-642</v>
+        <v>-785</v>
       </c>
       <c r="G31" s="9">
-        <v>-785</v>
+        <v>-118</v>
       </c>
       <c r="H31" s="9">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
@@ -1408,74 +1408,74 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>895863</v>
+        <v>938597</v>
       </c>
       <c r="F32" s="11">
-        <v>938597</v>
+        <v>1159933</v>
       </c>
       <c r="G32" s="11">
-        <v>1159933</v>
+        <v>1386021</v>
       </c>
       <c r="H32" s="11">
-        <v>1386021</v>
+        <v>1700675</v>
       </c>
       <c r="I32" s="11">
-        <v>1700675</v>
+        <v>1637371</v>
       </c>
       <c r="J32" s="11">
-        <v>1637371</v>
+        <v>1916177</v>
       </c>
       <c r="K32" s="11">
-        <v>1916177</v>
+        <v>1903047</v>
       </c>
       <c r="L32" s="11">
-        <v>1903047</v>
+        <v>2342887</v>
       </c>
       <c r="M32" s="11">
-        <v>2342887</v>
+        <v>2112863</v>
       </c>
       <c r="N32" s="11">
-        <v>2112863</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3755932</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>894586</v>
+        <v>936403</v>
       </c>
       <c r="F33" s="15">
-        <v>936403</v>
+        <v>1158171</v>
       </c>
       <c r="G33" s="15">
-        <v>1158171</v>
+        <v>1385903</v>
       </c>
       <c r="H33" s="15">
-        <v>1385903</v>
+        <v>1700675</v>
       </c>
       <c r="I33" s="15">
-        <v>1700675</v>
+        <v>1637371</v>
       </c>
       <c r="J33" s="15">
-        <v>1637371</v>
+        <v>1916177</v>
       </c>
       <c r="K33" s="15">
-        <v>1916177</v>
+        <v>1903047</v>
       </c>
       <c r="L33" s="15">
-        <v>1903047</v>
+        <v>2342887</v>
       </c>
       <c r="M33" s="15">
-        <v>2342887</v>
+        <v>2112863</v>
       </c>
       <c r="N33" s="15">
-        <v>2112863</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3755932</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1505,7 +1505,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
@@ -1581,14 +1581,14 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>37619048</v>
+        <v>50064516</v>
       </c>
       <c r="F39" s="9">
-        <v>50064516</v>
-      </c>
-      <c r="G39" s="9">
         <v>69785714</v>
       </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" s="9" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>19</v>
       </c>
@@ -1698,37 +1698,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>44734995</v>
+        <v>51930383</v>
       </c>
       <c r="F42" s="11">
-        <v>51930383</v>
+        <v>59593541</v>
       </c>
       <c r="G42" s="11">
-        <v>59593541</v>
+        <v>78173773</v>
       </c>
       <c r="H42" s="11">
-        <v>78173773</v>
+        <v>85319571</v>
       </c>
       <c r="I42" s="11">
-        <v>85319571</v>
+        <v>98028558</v>
       </c>
       <c r="J42" s="11">
-        <v>98028558</v>
+        <v>101101514</v>
       </c>
       <c r="K42" s="11">
-        <v>101101514</v>
+        <v>113777771</v>
       </c>
       <c r="L42" s="11">
-        <v>113777771</v>
+        <v>131041277</v>
       </c>
       <c r="M42" s="11">
-        <v>131041277</v>
+        <v>122484812</v>
       </c>
       <c r="N42" s="11">
-        <v>122484812</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121515804</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1743,7 +1743,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1758,7 +1758,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1825,7 +1825,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1834,17 +1834,17 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>344</v>
+        <v>-344</v>
       </c>
       <c r="F48" s="9">
-        <v>-344</v>
+        <v>1457</v>
       </c>
       <c r="G48" s="9">
-        <v>1457</v>
-      </c>
-      <c r="H48" s="9">
         <v>156</v>
       </c>
+      <c r="H48" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I48" s="9" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>18</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
@@ -1912,74 +1912,74 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-391792</v>
+        <v>-394514</v>
       </c>
       <c r="F50" s="9">
-        <v>-394514</v>
+        <v>-509889</v>
       </c>
       <c r="G50" s="9">
-        <v>-509889</v>
+        <v>-532047</v>
       </c>
       <c r="H50" s="9">
-        <v>-532047</v>
+        <v>-631848</v>
       </c>
       <c r="I50" s="9">
-        <v>-631848</v>
+        <v>-594064</v>
       </c>
       <c r="J50" s="9">
-        <v>-594064</v>
+        <v>-754538</v>
       </c>
       <c r="K50" s="9">
-        <v>-754538</v>
+        <v>-812192</v>
       </c>
       <c r="L50" s="9">
-        <v>-812192</v>
+        <v>-1060461</v>
       </c>
       <c r="M50" s="9">
-        <v>-1060461</v>
+        <v>-1168958</v>
       </c>
       <c r="N50" s="9">
-        <v>-1168958</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2114339</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>-391448</v>
+        <v>-394858</v>
       </c>
       <c r="F51" s="13">
-        <v>-394858</v>
+        <v>-508432</v>
       </c>
       <c r="G51" s="13">
-        <v>-508432</v>
+        <v>-531891</v>
       </c>
       <c r="H51" s="13">
-        <v>-531891</v>
+        <v>-631848</v>
       </c>
       <c r="I51" s="13">
-        <v>-631848</v>
+        <v>-594064</v>
       </c>
       <c r="J51" s="13">
-        <v>-594064</v>
+        <v>-754538</v>
       </c>
       <c r="K51" s="13">
-        <v>-754538</v>
+        <v>-812192</v>
       </c>
       <c r="L51" s="13">
-        <v>-812192</v>
+        <v>-1060461</v>
       </c>
       <c r="M51" s="13">
-        <v>-1060461</v>
+        <v>-1168958</v>
       </c>
       <c r="N51" s="13">
-        <v>-1168958</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2114339</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1994,7 +1994,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2024,7 +2024,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2076,7 +2076,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>22</v>
       </c>
@@ -2085,17 +2085,17 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>-446</v>
+        <v>-1896</v>
       </c>
       <c r="F57" s="9">
-        <v>-1896</v>
+        <v>480</v>
       </c>
       <c r="G57" s="9">
-        <v>480</v>
-      </c>
-      <c r="H57" s="9">
         <v>156</v>
       </c>
+      <c r="H57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I57" s="9" t="s">
         <v>17</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>18</v>
       </c>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>-487</v>
+        <v>-155</v>
       </c>
       <c r="F58" s="11">
-        <v>-155</v>
+        <v>-143</v>
       </c>
       <c r="G58" s="11">
-        <v>-143</v>
+        <v>-118</v>
       </c>
       <c r="H58" s="11">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
@@ -2163,71 +2163,71 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>504071</v>
+        <v>543141</v>
       </c>
       <c r="F59" s="9">
-        <v>543141</v>
+        <v>647060</v>
       </c>
       <c r="G59" s="9">
-        <v>647060</v>
+        <v>853974</v>
       </c>
       <c r="H59" s="9">
-        <v>853974</v>
+        <v>1068827</v>
       </c>
       <c r="I59" s="9">
-        <v>1068827</v>
+        <v>1043307</v>
       </c>
       <c r="J59" s="9">
-        <v>1043307</v>
+        <v>1161639</v>
       </c>
       <c r="K59" s="9">
-        <v>1161639</v>
+        <v>1090855</v>
       </c>
       <c r="L59" s="9">
-        <v>1090855</v>
+        <v>1282426</v>
       </c>
       <c r="M59" s="9">
-        <v>1282426</v>
+        <v>943905</v>
       </c>
       <c r="N59" s="9">
-        <v>943905</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1641593</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>503138</v>
+        <v>541090</v>
       </c>
       <c r="F60" s="13">
-        <v>541090</v>
+        <v>647397</v>
       </c>
       <c r="G60" s="13">
-        <v>647397</v>
+        <v>854012</v>
       </c>
       <c r="H60" s="13">
-        <v>854012</v>
+        <v>1068827</v>
       </c>
       <c r="I60" s="13">
-        <v>1068827</v>
+        <v>1043307</v>
       </c>
       <c r="J60" s="13">
-        <v>1043307</v>
+        <v>1161639</v>
       </c>
       <c r="K60" s="13">
-        <v>1161639</v>
+        <v>1090855</v>
       </c>
       <c r="L60" s="13">
-        <v>1090855</v>
+        <v>1282426</v>
       </c>
       <c r="M60" s="13">
-        <v>1282426</v>
+        <v>943905</v>
       </c>
       <c r="N60" s="13">
-        <v>943905</v>
+        <v>1641593</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED994F-3B99-474C-8FFA-B4FB63DACCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10786828-F780-4208-B275-AAE975B1AB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,6 +37,30 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,21 +91,24 @@
     <t>فصل سوم منتهی به 1401/12</t>
   </si>
   <si>
-    <t>انواع ظروف شیشه ای</t>
+    <t>فصل چهارم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>انواع ظروف شیشه ای بطر و جار</t>
   </si>
   <si>
     <t>تن</t>
   </si>
   <si>
+    <t>سایر / تخفیفات</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>سایر / تخفیفات</t>
-  </si>
-  <si>
-    <t>انواع ظروف شیشه ای بطر و جار</t>
-  </si>
-  <si>
     <t>جمع</t>
   </si>
   <si>
@@ -103,13 +130,10 @@
     <t>نرخ فروش</t>
   </si>
   <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
     <t>ریال / ریال</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -571,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N60"/>
+  <dimension ref="B1:X62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -594,8 +618,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,8 +645,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +672,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,8 +697,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -660,8 +724,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -677,8 +751,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -692,8 +776,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -729,8 +823,38 @@
       <c r="N8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -744,160 +868,246 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
+      <c r="E11" s="11">
+        <v>18673</v>
+      </c>
+      <c r="F11" s="11">
+        <v>17901</v>
+      </c>
+      <c r="G11" s="11">
+        <v>18755</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>17601</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>18317</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>17652</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>18540</v>
       </c>
       <c r="L11" s="11">
-        <v>0</v>
+        <v>17452</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>16721</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>18787</v>
+      </c>
+      <c r="O11" s="11">
+        <v>19636</v>
+      </c>
+      <c r="P11" s="11">
+        <v>19292</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>18603</v>
+      </c>
+      <c r="R11" s="11">
+        <v>18700</v>
+      </c>
+      <c r="S11" s="11">
+        <v>26760</v>
+      </c>
+      <c r="T11" s="11">
+        <v>21604</v>
+      </c>
+      <c r="U11" s="11">
+        <v>26802</v>
+      </c>
+      <c r="V11" s="11">
+        <v>30285</v>
+      </c>
+      <c r="W11" s="11">
+        <v>36779</v>
+      </c>
+      <c r="X11" s="11">
+        <v>32601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>16721</v>
-      </c>
-      <c r="F12" s="9">
-        <v>18787</v>
-      </c>
-      <c r="G12" s="9">
-        <v>19636</v>
-      </c>
-      <c r="H12" s="9">
-        <v>19292</v>
-      </c>
-      <c r="I12" s="9">
-        <v>18603</v>
-      </c>
-      <c r="J12" s="9">
-        <v>18700</v>
-      </c>
-      <c r="K12" s="9">
-        <v>26760</v>
-      </c>
-      <c r="L12" s="9">
-        <v>21604</v>
-      </c>
-      <c r="M12" s="9">
-        <v>26802</v>
-      </c>
-      <c r="N12" s="9">
-        <v>30285</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>18673</v>
+      </c>
+      <c r="F13" s="13">
+        <v>17901</v>
+      </c>
+      <c r="G13" s="13">
+        <v>18755</v>
+      </c>
+      <c r="H13" s="13">
+        <v>17601</v>
+      </c>
+      <c r="I13" s="13">
+        <v>18317</v>
+      </c>
+      <c r="J13" s="13">
+        <v>17652</v>
+      </c>
+      <c r="K13" s="13">
+        <v>18540</v>
+      </c>
+      <c r="L13" s="13">
+        <v>17452</v>
+      </c>
+      <c r="M13" s="13">
         <v>16721</v>
       </c>
-      <c r="F13" s="13">
+      <c r="N13" s="13">
         <v>18787</v>
       </c>
-      <c r="G13" s="13">
+      <c r="O13" s="13">
         <v>19636</v>
       </c>
-      <c r="H13" s="13">
+      <c r="P13" s="13">
         <v>19292</v>
       </c>
-      <c r="I13" s="13">
+      <c r="Q13" s="13">
         <v>18603</v>
       </c>
-      <c r="J13" s="13">
+      <c r="R13" s="13">
         <v>18700</v>
       </c>
-      <c r="K13" s="13">
+      <c r="S13" s="13">
         <v>26760</v>
       </c>
-      <c r="L13" s="13">
+      <c r="T13" s="13">
         <v>21604</v>
       </c>
-      <c r="M13" s="13">
+      <c r="U13" s="13">
         <v>26802</v>
       </c>
-      <c r="N13" s="13">
+      <c r="V13" s="13">
         <v>30285</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W13" s="13">
+        <v>36779</v>
+      </c>
+      <c r="X13" s="13">
+        <v>32601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -911,8 +1121,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -926,8 +1146,18 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -941,10 +1171,20 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -978,8 +1218,38 @@
       <c r="N17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -993,88 +1263,114 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>-31</v>
-      </c>
-      <c r="F19" s="9">
-        <v>-14</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="11">
+        <v>17426</v>
+      </c>
+      <c r="F20" s="11">
+        <v>17889</v>
+      </c>
+      <c r="G20" s="11">
+        <v>20058</v>
+      </c>
+      <c r="H20" s="11">
+        <v>16554</v>
+      </c>
+      <c r="I20" s="11">
+        <v>16904</v>
+      </c>
+      <c r="J20" s="11">
+        <v>21455</v>
+      </c>
+      <c r="K20" s="11">
+        <v>19250</v>
+      </c>
+      <c r="L20" s="11">
+        <v>20026</v>
+      </c>
+      <c r="M20" s="11">
+        <v>18077</v>
+      </c>
+      <c r="N20" s="11">
+        <v>19466</v>
+      </c>
+      <c r="O20" s="11">
+        <v>17730</v>
+      </c>
+      <c r="P20" s="11">
+        <v>19933</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>16703</v>
+      </c>
+      <c r="R20" s="11">
+        <v>18953</v>
+      </c>
+      <c r="S20" s="11">
+        <v>16726</v>
+      </c>
+      <c r="T20" s="11">
+        <v>17879</v>
+      </c>
+      <c r="U20" s="11">
+        <v>17250</v>
+      </c>
+      <c r="V20" s="11">
+        <v>30909</v>
+      </c>
+      <c r="W20" s="11">
+        <v>37415</v>
+      </c>
+      <c r="X20" s="11">
+        <v>31724</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1108,84 +1404,174 @@
       <c r="N21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>-684</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>18077</v>
+        <v>-151</v>
       </c>
       <c r="F22" s="11">
-        <v>19466</v>
+        <v>151</v>
       </c>
       <c r="G22" s="11">
-        <v>17730</v>
+        <v>-173</v>
       </c>
       <c r="H22" s="11">
-        <v>19933</v>
+        <v>-23</v>
       </c>
       <c r="I22" s="11">
-        <v>16703</v>
+        <v>0</v>
       </c>
       <c r="J22" s="11">
-        <v>18953</v>
+        <v>-168</v>
       </c>
       <c r="K22" s="11">
-        <v>16726</v>
+        <v>-144</v>
       </c>
       <c r="L22" s="11">
-        <v>17879</v>
+        <v>-21</v>
       </c>
       <c r="M22" s="11">
-        <v>17250</v>
+        <v>-31</v>
       </c>
       <c r="N22" s="11">
-        <v>30909</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-14</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>17275</v>
+      </c>
+      <c r="F23" s="15">
+        <v>18040</v>
+      </c>
+      <c r="G23" s="15">
+        <v>19885</v>
+      </c>
+      <c r="H23" s="15">
+        <v>16531</v>
+      </c>
+      <c r="I23" s="15">
+        <v>16904</v>
+      </c>
+      <c r="J23" s="15">
+        <v>21287</v>
+      </c>
+      <c r="K23" s="15">
+        <v>19106</v>
+      </c>
+      <c r="L23" s="15">
+        <v>20005</v>
+      </c>
+      <c r="M23" s="15">
         <v>18046</v>
       </c>
-      <c r="F23" s="15">
+      <c r="N23" s="15">
         <v>19452</v>
       </c>
-      <c r="G23" s="15">
+      <c r="O23" s="15">
         <v>17730</v>
       </c>
-      <c r="H23" s="15">
+      <c r="P23" s="15">
         <v>19933</v>
       </c>
-      <c r="I23" s="15">
+      <c r="Q23" s="15">
         <v>16703</v>
       </c>
-      <c r="J23" s="15">
+      <c r="R23" s="15">
         <v>18953</v>
       </c>
-      <c r="K23" s="15">
+      <c r="S23" s="15">
         <v>16726</v>
       </c>
-      <c r="L23" s="15">
+      <c r="T23" s="15">
         <v>17879</v>
       </c>
-      <c r="M23" s="15">
+      <c r="U23" s="15">
         <v>17250</v>
       </c>
-      <c r="N23" s="15">
+      <c r="V23" s="15">
         <v>30909</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W23" s="15">
+        <v>36731</v>
+      </c>
+      <c r="X23" s="15">
+        <v>31724</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1199,8 +1585,18 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1214,8 +1610,18 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1229,10 +1635,20 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1266,8 +1682,38 @@
       <c r="N27" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1281,201 +1727,317 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>-1552</v>
-      </c>
-      <c r="F29" s="9">
-        <v>-977</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="11">
+        <v>375390</v>
+      </c>
+      <c r="F30" s="11">
+        <v>435150</v>
+      </c>
+      <c r="G30" s="11">
+        <v>586454</v>
+      </c>
+      <c r="H30" s="11">
+        <v>562295</v>
+      </c>
+      <c r="I30" s="11">
+        <v>582296</v>
+      </c>
+      <c r="J30" s="11">
+        <v>754872</v>
+      </c>
+      <c r="K30" s="11">
+        <v>756939</v>
+      </c>
+      <c r="L30" s="11">
+        <v>895863</v>
+      </c>
+      <c r="M30" s="11">
+        <v>938597</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1159933</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1386021</v>
+      </c>
+      <c r="P30" s="11">
+        <v>1700675</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>1637371</v>
+      </c>
+      <c r="R30" s="11">
+        <v>1916177</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1903047</v>
+      </c>
+      <c r="T30" s="11">
+        <v>2342887</v>
+      </c>
+      <c r="U30" s="11">
+        <v>2112863</v>
+      </c>
+      <c r="V30" s="11">
+        <v>3755932</v>
+      </c>
+      <c r="W30" s="11">
+        <v>5501978</v>
+      </c>
+      <c r="X30" s="11">
+        <v>4142731</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>-6044</v>
+      </c>
+      <c r="F31" s="9">
+        <v>6044</v>
+      </c>
+      <c r="G31" s="9">
+        <v>-9994</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-636</v>
+      </c>
+      <c r="J31" s="9">
+        <v>-427</v>
+      </c>
+      <c r="K31" s="9">
+        <v>-564</v>
+      </c>
+      <c r="L31" s="9">
+        <v>-487</v>
+      </c>
+      <c r="M31" s="9">
         <v>-642</v>
       </c>
-      <c r="F31" s="9">
+      <c r="N31" s="9">
         <v>-785</v>
       </c>
-      <c r="G31" s="9">
+      <c r="O31" s="9">
         <v>-118</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>-1007774</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>938597</v>
+        <v>-2905</v>
       </c>
       <c r="F32" s="11">
-        <v>1159933</v>
+        <v>2905</v>
       </c>
       <c r="G32" s="11">
-        <v>1386021</v>
+        <v>-3475</v>
       </c>
       <c r="H32" s="11">
-        <v>1700675</v>
+        <v>-1041</v>
       </c>
       <c r="I32" s="11">
-        <v>1637371</v>
+        <v>239</v>
       </c>
       <c r="J32" s="11">
-        <v>1916177</v>
+        <v>-5948</v>
       </c>
       <c r="K32" s="11">
-        <v>1903047</v>
+        <v>-3862</v>
       </c>
       <c r="L32" s="11">
-        <v>2342887</v>
+        <v>-790</v>
       </c>
       <c r="M32" s="11">
-        <v>2112863</v>
+        <v>-1552</v>
       </c>
       <c r="N32" s="11">
-        <v>3755932</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-977</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>366441</v>
+      </c>
+      <c r="F33" s="15">
+        <v>444099</v>
+      </c>
+      <c r="G33" s="15">
+        <v>572985</v>
+      </c>
+      <c r="H33" s="15">
+        <v>561254</v>
+      </c>
+      <c r="I33" s="15">
+        <v>581899</v>
+      </c>
+      <c r="J33" s="15">
+        <v>748497</v>
+      </c>
+      <c r="K33" s="15">
+        <v>752513</v>
+      </c>
+      <c r="L33" s="15">
+        <v>894586</v>
+      </c>
+      <c r="M33" s="15">
         <v>936403</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>1158171</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>1385903</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>1700675</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>1637371</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>1916177</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>1903047</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>2342887</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>2112863</v>
       </c>
-      <c r="N33" s="15">
+      <c r="V33" s="15">
         <v>3755932</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W33" s="15">
+        <v>4494204</v>
+      </c>
+      <c r="X33" s="15">
+        <v>4142731</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1489,8 +2051,18 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1504,8 +2076,18 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1519,10 +2101,20 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1556,8 +2148,38 @@
       <c r="N37" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1571,164 +2193,250 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11">
+        <v>21541949</v>
+      </c>
+      <c r="F40" s="11">
+        <v>24325004</v>
+      </c>
+      <c r="G40" s="11">
+        <v>29237910</v>
+      </c>
+      <c r="H40" s="11">
+        <v>33967319</v>
+      </c>
+      <c r="I40" s="11">
+        <v>34447231</v>
+      </c>
+      <c r="J40" s="11">
+        <v>35183966</v>
+      </c>
+      <c r="K40" s="11">
+        <v>39321506</v>
+      </c>
+      <c r="L40" s="11">
+        <v>44734995</v>
+      </c>
+      <c r="M40" s="11">
+        <v>51930383</v>
+      </c>
+      <c r="N40" s="11">
+        <v>59593541</v>
+      </c>
+      <c r="O40" s="11">
+        <v>78173773</v>
+      </c>
+      <c r="P40" s="11">
+        <v>85319571</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>98028558</v>
+      </c>
+      <c r="R40" s="11">
+        <v>101101514</v>
+      </c>
+      <c r="S40" s="11">
+        <v>113777771</v>
+      </c>
+      <c r="T40" s="11">
+        <v>131041277</v>
+      </c>
+      <c r="U40" s="11">
+        <v>122484812</v>
+      </c>
+      <c r="V40" s="11">
+        <v>121515804</v>
+      </c>
+      <c r="W40" s="11">
+        <v>147052733</v>
+      </c>
+      <c r="X40" s="11">
+        <v>130586654</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>50064516</v>
-      </c>
-      <c r="F39" s="9">
-        <v>69785714</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C41" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W41" s="9">
+        <v>1473353801</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>51930383</v>
+        <v>19238411</v>
       </c>
       <c r="F42" s="11">
-        <v>59593541</v>
+        <v>19238411</v>
       </c>
       <c r="G42" s="11">
-        <v>78173773</v>
+        <v>20086705</v>
       </c>
       <c r="H42" s="11">
-        <v>85319571</v>
-      </c>
-      <c r="I42" s="11">
-        <v>98028558</v>
+        <v>45260870</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="J42" s="11">
-        <v>101101514</v>
+        <v>35404762</v>
       </c>
       <c r="K42" s="11">
-        <v>113777771</v>
+        <v>26819444</v>
       </c>
       <c r="L42" s="11">
-        <v>131041277</v>
+        <v>37619048</v>
       </c>
       <c r="M42" s="11">
-        <v>122484812</v>
+        <v>50064516</v>
       </c>
       <c r="N42" s="11">
-        <v>121515804</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>69785714</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1742,8 +2450,18 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1757,8 +2475,18 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1772,10 +2500,20 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1809,8 +2547,38 @@
       <c r="N46" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1824,177 +2592,317 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>-344</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1457</v>
-      </c>
-      <c r="G48" s="9">
-        <v>156</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>-194511</v>
       </c>
       <c r="F49" s="11">
-        <v>0</v>
+        <v>-227696</v>
       </c>
       <c r="G49" s="11">
-        <v>0</v>
+        <v>-269797</v>
       </c>
       <c r="H49" s="11">
-        <v>0</v>
+        <v>-251148</v>
       </c>
       <c r="I49" s="11">
-        <v>0</v>
+        <v>-270312</v>
       </c>
       <c r="J49" s="11">
-        <v>0</v>
+        <v>-349929</v>
       </c>
       <c r="K49" s="11">
-        <v>0</v>
+        <v>-330478</v>
       </c>
       <c r="L49" s="11">
-        <v>0</v>
+        <v>-391792</v>
       </c>
       <c r="M49" s="11">
-        <v>0</v>
+        <v>-394514</v>
       </c>
       <c r="N49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-509889</v>
+      </c>
+      <c r="O49" s="11">
+        <v>-532047</v>
+      </c>
+      <c r="P49" s="11">
+        <v>-631848</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>-594064</v>
+      </c>
+      <c r="R49" s="11">
+        <v>-754538</v>
+      </c>
+      <c r="S49" s="11">
+        <v>-812192</v>
+      </c>
+      <c r="T49" s="11">
+        <v>-1060461</v>
+      </c>
+      <c r="U49" s="11">
+        <v>-1168958</v>
+      </c>
+      <c r="V49" s="11">
+        <v>-2114339</v>
+      </c>
+      <c r="W49" s="11">
+        <v>-2685411</v>
+      </c>
+      <c r="X49" s="11">
+        <v>-2574095</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-394514</v>
+        <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>-509889</v>
+        <v>0</v>
       </c>
       <c r="G50" s="9">
-        <v>-532047</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>0</v>
+      </c>
+      <c r="U50" s="9">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>4104</v>
+      </c>
+      <c r="L51" s="11">
+        <v>344</v>
+      </c>
+      <c r="M51" s="11">
+        <v>-344</v>
+      </c>
+      <c r="N51" s="11">
+        <v>1457</v>
+      </c>
+      <c r="O51" s="11">
+        <v>156</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15">
+        <v>-194511</v>
+      </c>
+      <c r="F52" s="15">
+        <v>-227696</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-269797</v>
+      </c>
+      <c r="H52" s="15">
+        <v>-251148</v>
+      </c>
+      <c r="I52" s="15">
+        <v>-270312</v>
+      </c>
+      <c r="J52" s="15">
+        <v>-349929</v>
+      </c>
+      <c r="K52" s="15">
+        <v>-326374</v>
+      </c>
+      <c r="L52" s="15">
+        <v>-391448</v>
+      </c>
+      <c r="M52" s="15">
+        <v>-394858</v>
+      </c>
+      <c r="N52" s="15">
+        <v>-508432</v>
+      </c>
+      <c r="O52" s="15">
+        <v>-531891</v>
+      </c>
+      <c r="P52" s="15">
         <v>-631848</v>
       </c>
-      <c r="I50" s="9">
+      <c r="Q52" s="15">
         <v>-594064</v>
       </c>
-      <c r="J50" s="9">
+      <c r="R52" s="15">
         <v>-754538</v>
       </c>
-      <c r="K50" s="9">
+      <c r="S52" s="15">
         <v>-812192</v>
       </c>
-      <c r="L50" s="9">
+      <c r="T52" s="15">
         <v>-1060461</v>
       </c>
-      <c r="M50" s="9">
+      <c r="U52" s="15">
         <v>-1168958</v>
       </c>
-      <c r="N50" s="9">
+      <c r="V52" s="15">
         <v>-2114339</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13">
-        <v>-394858</v>
-      </c>
-      <c r="F51" s="13">
-        <v>-508432</v>
-      </c>
-      <c r="G51" s="13">
-        <v>-531891</v>
-      </c>
-      <c r="H51" s="13">
-        <v>-631848</v>
-      </c>
-      <c r="I51" s="13">
-        <v>-594064</v>
-      </c>
-      <c r="J51" s="13">
-        <v>-754538</v>
-      </c>
-      <c r="K51" s="13">
-        <v>-812192</v>
-      </c>
-      <c r="L51" s="13">
-        <v>-1060461</v>
-      </c>
-      <c r="M51" s="13">
-        <v>-1168958</v>
-      </c>
-      <c r="N51" s="13">
-        <v>-2114339</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W52" s="15">
+        <v>-2685411</v>
+      </c>
+      <c r="X52" s="15">
+        <v>-2574095</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2008,8 +2916,18 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2023,211 +2941,431 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X56" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>180879</v>
+      </c>
+      <c r="F59" s="11">
+        <v>207454</v>
+      </c>
+      <c r="G59" s="11">
+        <v>316657</v>
+      </c>
+      <c r="H59" s="11">
+        <v>311147</v>
+      </c>
+      <c r="I59" s="11">
+        <v>311984</v>
+      </c>
+      <c r="J59" s="11">
+        <v>404943</v>
+      </c>
+      <c r="K59" s="11">
+        <v>426461</v>
+      </c>
+      <c r="L59" s="11">
+        <v>504071</v>
+      </c>
+      <c r="M59" s="11">
+        <v>543141</v>
+      </c>
+      <c r="N59" s="11">
+        <v>647060</v>
+      </c>
+      <c r="O59" s="11">
+        <v>853974</v>
+      </c>
+      <c r="P59" s="11">
+        <v>1068827</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>1043307</v>
+      </c>
+      <c r="R59" s="11">
+        <v>1161639</v>
+      </c>
+      <c r="S59" s="11">
+        <v>1090855</v>
+      </c>
+      <c r="T59" s="11">
+        <v>1282426</v>
+      </c>
+      <c r="U59" s="11">
+        <v>943905</v>
+      </c>
+      <c r="V59" s="11">
+        <v>1641593</v>
+      </c>
+      <c r="W59" s="11">
+        <v>2816567</v>
+      </c>
+      <c r="X59" s="11">
+        <v>1568636</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9">
+        <v>-6044</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="9">
+        <v>-9994</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-636</v>
+      </c>
+      <c r="J60" s="9">
+        <v>-427</v>
+      </c>
+      <c r="K60" s="9">
+        <v>-564</v>
+      </c>
+      <c r="L60" s="9">
+        <v>-487</v>
+      </c>
+      <c r="M60" s="9">
+        <v>-155</v>
+      </c>
+      <c r="N60" s="9">
+        <v>-143</v>
+      </c>
+      <c r="O60" s="9">
+        <v>-118</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>0</v>
+      </c>
+      <c r="R60" s="9">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="9">
+        <v>0</v>
+      </c>
+      <c r="U60" s="9">
+        <v>0</v>
+      </c>
+      <c r="V60" s="9">
+        <v>0</v>
+      </c>
+      <c r="W60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
+      <c r="C61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>-2905</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-3475</v>
+      </c>
+      <c r="H61" s="11">
+        <v>-1041</v>
+      </c>
+      <c r="I61" s="11">
+        <v>239</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-5948</v>
+      </c>
+      <c r="K61" s="11">
+        <v>242</v>
+      </c>
+      <c r="L61" s="11">
+        <v>-446</v>
+      </c>
+      <c r="M61" s="11">
         <v>-1896</v>
       </c>
-      <c r="F57" s="9">
+      <c r="N61" s="11">
         <v>480</v>
       </c>
-      <c r="G57" s="9">
+      <c r="O61" s="11">
         <v>156</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11">
-        <v>-155</v>
-      </c>
-      <c r="F58" s="11">
-        <v>-143</v>
-      </c>
-      <c r="G58" s="11">
-        <v>-118</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-      <c r="J58" s="11">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9">
-        <v>543141</v>
-      </c>
-      <c r="F59" s="9">
-        <v>647060</v>
-      </c>
-      <c r="G59" s="9">
-        <v>853974</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="P61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15">
+        <v>171930</v>
+      </c>
+      <c r="F62" s="15">
+        <v>207454</v>
+      </c>
+      <c r="G62" s="15">
+        <v>303188</v>
+      </c>
+      <c r="H62" s="15">
+        <v>310106</v>
+      </c>
+      <c r="I62" s="15">
+        <v>311587</v>
+      </c>
+      <c r="J62" s="15">
+        <v>398568</v>
+      </c>
+      <c r="K62" s="15">
+        <v>426139</v>
+      </c>
+      <c r="L62" s="15">
+        <v>503138</v>
+      </c>
+      <c r="M62" s="15">
+        <v>541090</v>
+      </c>
+      <c r="N62" s="15">
+        <v>647397</v>
+      </c>
+      <c r="O62" s="15">
+        <v>854012</v>
+      </c>
+      <c r="P62" s="15">
         <v>1068827</v>
       </c>
-      <c r="I59" s="9">
+      <c r="Q62" s="15">
         <v>1043307</v>
       </c>
-      <c r="J59" s="9">
+      <c r="R62" s="15">
         <v>1161639</v>
       </c>
-      <c r="K59" s="9">
+      <c r="S62" s="15">
         <v>1090855</v>
       </c>
-      <c r="L59" s="9">
+      <c r="T62" s="15">
         <v>1282426</v>
       </c>
-      <c r="M59" s="9">
+      <c r="U62" s="15">
         <v>943905</v>
       </c>
-      <c r="N59" s="9">
+      <c r="V62" s="15">
         <v>1641593</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13">
-        <v>541090</v>
-      </c>
-      <c r="F60" s="13">
-        <v>647397</v>
-      </c>
-      <c r="G60" s="13">
-        <v>854012</v>
-      </c>
-      <c r="H60" s="13">
-        <v>1068827</v>
-      </c>
-      <c r="I60" s="13">
-        <v>1043307</v>
-      </c>
-      <c r="J60" s="13">
-        <v>1161639</v>
-      </c>
-      <c r="K60" s="13">
-        <v>1090855</v>
-      </c>
-      <c r="L60" s="13">
-        <v>1282426</v>
-      </c>
-      <c r="M60" s="13">
-        <v>943905</v>
-      </c>
-      <c r="N60" s="13">
-        <v>1641593</v>
+      <c r="W62" s="15">
+        <v>2816567</v>
+      </c>
+      <c r="X62" s="15">
+        <v>1568636</v>
       </c>
     </row>
   </sheetData>
